--- a/db.xlsx
+++ b/db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="114">
   <si>
     <t>Nama Entitas</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>varchar</t>
+  </si>
+  <si>
+    <t>id_status_pos</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,15 +882,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,21 +922,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,13 +948,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -989,13 +1001,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1034,13 +1046,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1079,13 +1091,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1583,7 +1595,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1632,7 +1644,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1683,7 +1695,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609603</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1732,7 +1744,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>371477</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>85728</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1817,7 +1829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1852,7 +1864,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2061,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N70"/>
+  <dimension ref="B3:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2124,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2126,7 +2138,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2136,7 +2148,7 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
@@ -2146,7 +2158,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2156,7 +2168,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2178,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2176,67 +2188,67 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="49" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
@@ -2246,7 +2258,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2256,19 +2268,19 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="10" t="s">
         <v>33</v>
       </c>
@@ -2278,19 +2290,19 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="51" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
@@ -2300,7 +2312,7 @@
       <c r="E22" s="23"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -2310,7 +2322,7 @@
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="52" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2324,7 +2336,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2334,14 +2346,14 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="49" t="s">
         <v>100</v>
       </c>
       <c r="G26" t="s">
@@ -2358,14 +2370,14 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="49" t="s">
         <v>100</v>
       </c>
       <c r="G27" t="s">
@@ -2382,7 +2394,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="10" t="s">
         <v>51</v>
       </c>
@@ -2392,7 +2404,7 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="10" t="s">
         <v>52</v>
       </c>
@@ -2402,7 +2414,7 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>53</v>
       </c>
@@ -2412,19 +2424,19 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="10" t="s">
         <v>55</v>
       </c>
@@ -2434,8 +2446,8 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="31" t="s">
@@ -2444,7 +2456,7 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="10" t="s">
         <v>57</v>
       </c>
@@ -2454,7 +2466,7 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="10" t="s">
         <v>58</v>
       </c>
@@ -2464,7 +2476,7 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="10" t="s">
         <v>59</v>
       </c>
@@ -2474,7 +2486,7 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="50"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="10" t="s">
         <v>60</v>
       </c>
@@ -2484,7 +2496,7 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="10" t="s">
         <v>62</v>
       </c>
@@ -2494,7 +2506,7 @@
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="50"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="10" t="s">
         <v>63</v>
       </c>
@@ -2504,7 +2516,7 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="50"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="10" t="s">
         <v>64</v>
       </c>
@@ -2514,196 +2526,194 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="50"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="57"/>
+      <c r="C42" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="50"/>
-      <c r="C42" s="10" t="s">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="57"/>
+      <c r="C43" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="57" t="s">
+      <c r="D43" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="49" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="18" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="57"/>
+      <c r="C45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="18"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="57"/>
+      <c r="C46" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="12" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="51"/>
-      <c r="C46" s="13" t="s">
+    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="15" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="52" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G48" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="59" t="s">
+      <c r="I48" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J48" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K47" s="59" t="s">
+      <c r="K48" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="L47" s="17" t="s">
+      <c r="L48" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="M47" s="59" t="s">
+      <c r="M48" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N47" s="17" t="s">
+      <c r="N48" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="53"/>
-      <c r="C48" s="17" t="s">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="59"/>
+      <c r="C49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="17" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="61"/>
-      <c r="J48" s="17" t="s">
+      <c r="I49" s="56"/>
+      <c r="J49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="61"/>
-      <c r="L48" s="17" t="s">
+      <c r="K49" s="56"/>
+      <c r="L49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M48" s="61"/>
-      <c r="N48" s="17" t="s">
+      <c r="M49" s="56"/>
+      <c r="N49" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="17" t="s">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="59"/>
+      <c r="C50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="17" t="s">
+      <c r="E50" s="12"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="K49" s="60"/>
-      <c r="L49" s="17" t="s">
+      <c r="K50" s="55"/>
+      <c r="L50" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="M49" s="60"/>
-      <c r="N49" s="17" t="s">
+      <c r="M50" s="55"/>
+      <c r="N50" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="53"/>
-      <c r="C50" s="32" t="s">
+    <row r="51" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="59"/>
+      <c r="C51" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="49" t="s">
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="50"/>
-      <c r="C52" s="17" t="s">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="57"/>
+      <c r="C53" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="50"/>
-      <c r="C53" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>14</v>
@@ -2713,75 +2723,75 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="50"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="57"/>
+      <c r="C55" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="50"/>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="57"/>
+      <c r="C56" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="23"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="50"/>
-      <c r="C56" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="51"/>
-      <c r="C57" s="13" t="s">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="57"/>
+      <c r="C57" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="53"/>
+      <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="49" t="s">
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
-      <c r="C59" s="10" t="s">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="57"/>
+      <c r="C60" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>14</v>
@@ -2791,138 +2801,150 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="57"/>
+      <c r="C62" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D62" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="50"/>
-      <c r="C62" s="10" t="s">
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="57"/>
+      <c r="C63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="51"/>
-      <c r="C63" s="13" t="s">
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="53"/>
+      <c r="C64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="49" t="s">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="9" t="s">
+      <c r="D65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="50"/>
-      <c r="C65" s="10" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="57"/>
+      <c r="C66" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="D66" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="51"/>
-      <c r="C66" s="33" t="s">
+    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="53"/>
+      <c r="C67" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="15" t="s">
+      <c r="D67" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="49" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="D68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="51"/>
-      <c r="C68" s="13" t="s">
+    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="53"/>
+      <c r="C69" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="15" t="s">
+      <c r="D69" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="49" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="D70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="51"/>
-      <c r="C70" s="13" t="s">
+    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="53"/>
+      <c r="C71" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D71" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E71" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B68"/>
     <mergeCell ref="B6:B23"/>
-    <mergeCell ref="B24:B42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B24:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2982,7 +3004,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="37" t="s">
@@ -2999,7 +3021,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="55"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="27" t="s">
         <v>23</v>
       </c>
@@ -3014,7 +3036,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="56"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="42" t="s">
         <v>23</v>
       </c>
@@ -3029,7 +3051,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="60" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -3046,7 +3068,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="55"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="27" t="s">
         <v>23</v>
       </c>
@@ -3061,7 +3083,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="55"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="27" t="s">
         <v>23</v>
       </c>
@@ -3076,7 +3098,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="56"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="42" t="s">
         <v>23</v>
       </c>

--- a/db.xlsx
+++ b/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
   <si>
     <t>Nama Entitas</t>
   </si>
@@ -889,41 +889,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,15 +1000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1017,8 +1017,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="8772525"/>
-          <a:ext cx="5276850" cy="809625"/>
+          <a:off x="600075" y="8991600"/>
+          <a:ext cx="5514975" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1044,16 +1044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1062,8 +1062,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="619125" y="8801101"/>
-          <a:ext cx="5229225" cy="790574"/>
+          <a:off x="600075" y="8982076"/>
+          <a:ext cx="5467350" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2073,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N71"/>
+  <dimension ref="B3:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="10" t="s">
         <v>46</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
@@ -2280,7 +2280,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="10" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="29" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2302,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="E22" s="23"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="53" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="10" t="s">
         <v>50</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="10" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="10" t="s">
         <v>52</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="10" t="s">
         <v>53</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="34" t="s">
         <v>54</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="10" t="s">
         <v>55</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="63" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="31" t="s">
@@ -2456,7 +2456,7 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="10" t="s">
         <v>57</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="10" t="s">
         <v>58</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="10" t="s">
         <v>59</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="10" t="s">
         <v>60</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="10" t="s">
         <v>62</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="10" t="s">
         <v>63</v>
       </c>
@@ -2516,7 +2516,7 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="10" t="s">
         <v>64</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="10" t="s">
         <v>113</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="10" t="s">
         <v>65</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="10" t="s">
         <v>61</v>
       </c>
@@ -2558,7 +2558,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2572,7 +2572,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="18" t="s">
         <v>69</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="E45" s="20"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="10" t="s">
         <v>67</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="53"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
@@ -2600,7 +2600,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -2612,25 +2612,25 @@
       <c r="E48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="58" t="s">
         <v>91</v>
       </c>
       <c r="H48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="54" t="s">
+      <c r="I48" s="58" t="s">
         <v>93</v>
       </c>
       <c r="J48" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K48" s="54" t="s">
+      <c r="K48" s="58" t="s">
         <v>95</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="58" t="s">
         <v>97</v>
       </c>
       <c r="N48" s="17" t="s">
@@ -2638,7 +2638,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="59"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="17" t="s">
         <v>11</v>
       </c>
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="50"/>
-      <c r="G49" s="55"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="56"/>
+      <c r="I49" s="60"/>
       <c r="J49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="56"/>
+      <c r="K49" s="60"/>
       <c r="L49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="56"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="17" t="s">
         <v>13</v>
       </c>
@@ -2673,21 +2673,21 @@
         <v>16</v>
       </c>
       <c r="E50" s="12"/>
-      <c r="I50" s="55"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="K50" s="55"/>
+      <c r="K50" s="59"/>
       <c r="L50" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="M50" s="55"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="32" t="s">
         <v>70</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="E51" s="23"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="17" t="s">
         <v>73</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="17" t="s">
         <v>72</v>
       </c>
@@ -2735,7 +2735,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="17" t="s">
         <v>76</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="E55" s="23"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="17" t="s">
         <v>75</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="E56" s="23"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="17" t="s">
         <v>74</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="E57" s="23"/>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="E58" s="15"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="53" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="21" t="s">
@@ -2789,7 +2789,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="22" t="s">
         <v>68</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="22" t="s">
         <v>78</v>
       </c>
@@ -2823,128 +2823,136 @@
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="54"/>
+      <c r="C63" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="54"/>
+      <c r="C64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="53"/>
-      <c r="C64" s="13" t="s">
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="55"/>
+      <c r="C65" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="52" t="s">
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="D66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
-      <c r="C66" s="10" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="54"/>
+      <c r="C67" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="D67" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="53"/>
-      <c r="C67" s="33" t="s">
+    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="55"/>
+      <c r="C68" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="15" t="s">
+      <c r="D68" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="D69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="53"/>
-      <c r="C69" s="13" t="s">
+    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="55"/>
+      <c r="C70" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="15" t="s">
+      <c r="D70" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="52" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C71" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="9" t="s">
+      <c r="D71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="53"/>
-      <c r="C71" s="13" t="s">
+    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="55"/>
+      <c r="C72" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D72" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="E72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="B6:B23"/>
     <mergeCell ref="B24:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3004,7 +3012,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="37" t="s">
@@ -3021,7 +3029,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="27" t="s">
         <v>23</v>
       </c>
@@ -3036,7 +3044,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="42" t="s">
         <v>23</v>
       </c>
@@ -3051,7 +3059,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="61" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -3068,7 +3076,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="27" t="s">
         <v>23</v>
       </c>
@@ -3083,7 +3091,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="27" t="s">
         <v>23</v>
       </c>
@@ -3098,7 +3106,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="42" t="s">
         <v>23</v>
       </c>
